--- a/easyexcel-upload-demo/src/main/resources/使用模板导出.xlsx
+++ b/easyexcel-upload-demo/src/main/resources/使用模板导出.xlsx
@@ -11,12 +11,25 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>统计报表</t>
   </si>
@@ -37,12 +50,42 @@
   </si>
   <si>
     <t>{total}</t>
+  </si>
+  <si>
+    <t>明细数据</t>
+  </si>
+  <si>
+    <t>本周</t>
+  </si>
+  <si>
+    <t>周一</t>
+  </si>
+  <si>
+    <t>周二</t>
+  </si>
+  <si>
+    <t>周三</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>当日新增</t>
+  </si>
+  <si>
+    <t>{week.count}</t>
+  </si>
+  <si>
+    <t>{details.date}</t>
+  </si>
+  <si>
+    <t>{details.count}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -658,7 +701,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,6 +710,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1016,13 +1065,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="21.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="25.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.1111111111111" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -1062,9 +1116,79 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/easyexcel-upload-demo/src/main/resources/使用模板导出.xlsx
+++ b/easyexcel-upload-demo/src/main/resources/使用模板导出.xlsx
@@ -55,7 +55,13 @@
     <t>明细数据</t>
   </si>
   <si>
-    <t>本周</t>
+    <t>本周统计</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>当日新增</t>
   </si>
   <si>
     <t>周一</t>
@@ -67,19 +73,13 @@
     <t>周三</t>
   </si>
   <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>当日新增</t>
+    <t>{details.date}</t>
+  </si>
+  <si>
+    <t>{details.count}</t>
   </si>
   <si>
     <t>{week.count}</t>
-  </si>
-  <si>
-    <t>{details.date}</t>
-  </si>
-  <si>
-    <t>{details.count}</t>
   </si>
 </sst>
 </file>
@@ -701,7 +701,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,9 +710,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1065,17 +1062,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="25.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="15.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="15.2222222222222" customWidth="1"/>
+    <col min="4" max="5" width="15.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1116,79 +1114,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="4"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="4"/>
+      <c r="C9" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
